--- a/biology/Zoologie/Conasprella/Conasprella.xlsx
+++ b/biology/Zoologie/Conasprella/Conasprella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conasprella est un genre de mollusques gastéropodes marins de la famille des Conidae. Ce genre a été identifié et décrit pour la première fois par J.K. Tucker et M.J. Tenorio en 2009.
 </t>
@@ -511,7 +523,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre est classifié dans la famille des Conidae, qui regroupe des coquillages principalement prédateurs. Les espèces du genre Conasprella sont réparties dans divers habitats marins à travers les océans tropicaux et subtropicaux du monde.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de Conasprella possèdent généralement des coquilles robustes et élancées avec une forme conique typique. La coquille est souvent ornée de motifs colorés et complexes, ce qui en fait des objets de collection prisés. Comme tous les conidae, ils utilisent un radula venimeux pour immobiliser leurs proies, principalement des petits poissons, avant de les consommer.
 </t>
@@ -573,9 +589,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Conasprella vivent principalement dans des eaux peu profondes et sont souvent retrouvés dans des récifs coralliens où ils chassent leurs proies. Leur venin, composé de divers peptides, est un sujet d'étude important pour la recherche pharmacologique, en raison de ses potentiels usages médicaux.[1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Conasprella vivent principalement dans des eaux peu profondes et sont souvent retrouvés dans des récifs coralliens où ils chassent leurs proies. Leur venin, composé de divers peptides, est un sujet d'étude important pour la recherche pharmacologique, en raison de ses potentiels usages médicaux.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que la plupart des espèces de Conasprella ne soient pas actuellement menacées, la dégradation de leur habitat, principalement les récifs coralliens, pose un risque pour leur survie future.
 </t>
@@ -635,7 +655,9 @@
           <t>Espèces notables</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Conasprella ximenes (Young, 1968)
 Conasprella thalassiarche (Melvill, 1898)
@@ -667,9 +689,11 @@
           <t>Pour en savoir plus</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les chercheurs continuent d'étudier ce genre pour mieux comprendre la biodiversité marine et les applications potentielles de leurs toxines. Les musées d'histoire naturelle et les bases de données en ligne offrent des ressources supplémentaires pour ceux qui souhaitent explorer davantage les espèces de Conasprella.[2]
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chercheurs continuent d'étudier ce genre pour mieux comprendre la biodiversité marine et les applications potentielles de leurs toxines. Les musées d'histoire naturelle et les bases de données en ligne offrent des ressources supplémentaires pour ceux qui souhaitent explorer davantage les espèces de Conasprella.
 </t>
         </is>
       </c>
@@ -698,9 +722,11 @@
           <t>Taxons de rangs inférieurs</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (10 octobre 2019)[2]:
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (10 octobre 2019):
 sous-genre Boucheticonus Tucker &amp; Tenorio, 2013
 sous-genre Coltroconus Petuch, 2013
 sous-genre Conasprella Thiele, 1929
